--- a/artfynd/A 3341-2023.xlsx
+++ b/artfynd/A 3341-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,6 +1650,123 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111897633</v>
+      </c>
+      <c r="B10" t="n">
+        <v>95674</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>222741</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Finbräken</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cystopteris montana</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Lam.) Desv.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Husås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>489384.8847604021</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7032364.981337981</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Christer Pålsson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Christer Pålsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3341-2023.xlsx
+++ b/artfynd/A 3341-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,6 +1767,122 @@
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111999496</v>
+      </c>
+      <c r="B11" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Husås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>489462.4384693049</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7032627.16846393</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Christer Pålsson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Christer Pålsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3341-2023.xlsx
+++ b/artfynd/A 3341-2023.xlsx
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489384.8847604021</v>
+        <v>489385</v>
       </c>
       <c r="R10" t="n">
-        <v>7032364.981337981</v>
+        <v>7032365</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1729,19 +1729,9 @@
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-06-22</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1812,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489462.4384693049</v>
+        <v>489462</v>
       </c>
       <c r="R11" t="n">
-        <v>7032627.16846393</v>
+        <v>7032627</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,19 +1835,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 3341-2023.xlsx
+++ b/artfynd/A 3341-2023.xlsx
@@ -1655,7 +1655,7 @@
         <v>111897633</v>
       </c>
       <c r="B10" t="n">
-        <v>95674</v>
+        <v>95850</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>111999496</v>
       </c>
       <c r="B11" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>

--- a/artfynd/A 3341-2023.xlsx
+++ b/artfynd/A 3341-2023.xlsx
@@ -1655,7 +1655,7 @@
         <v>111897633</v>
       </c>
       <c r="B10" t="n">
-        <v>95850</v>
+        <v>95864</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>111999496</v>
       </c>
       <c r="B11" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
